--- a/3D Print Price Matrix.xlsx
+++ b/3D Print Price Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Team Solutions\Desktop\ROLO'S NOTES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Team Solutions\Desktop\ROLO'S NOTES\gitfolder\TSD_SOPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEA3C9D-5E42-4F05-8B8F-41F82D7682C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84274FB3-BB7F-4E7A-81D6-6BB18EF230B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{BA8B49D7-C74D-413D-8564-8663255E2948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BA8B49D7-C74D-413D-8564-8663255E2948}"/>
   </bookViews>
   <sheets>
     <sheet name="Material Costs" sheetId="1" r:id="rId1"/>
@@ -154,9 +154,6 @@
     <t>Current emplyees</t>
   </si>
   <si>
-    <t>Hourly Pay rate for Katherine(100%) and Karyn (50%)</t>
-  </si>
-  <si>
     <t>Water / Sewer (avg)</t>
   </si>
   <si>
@@ -371,16 +368,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Paige * new addition not integrated yet </t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
     <t>Estimated print room hourly human cost rate</t>
-  </si>
-  <si>
-    <t>app. $30/hr</t>
   </si>
   <si>
     <r>
@@ -449,6 +440,15 @@
   </si>
   <si>
     <t>Custom Tray</t>
+  </si>
+  <si>
+    <t>Hourly Pay rate for Katherine(100%) and Paige (60%)</t>
+  </si>
+  <si>
+    <t>Karyn * only loaned on Fridays</t>
+  </si>
+  <si>
+    <t>app. $32/hr</t>
   </si>
 </sst>
 </file>
@@ -968,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B561D9BA-E124-4704-A9B7-6CEA86FBED63}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -991,7 +991,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>576</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
         <v>1317</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
         <v>1252</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
         <v>468</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
         <v>285</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
         <v>685</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1083,7 +1083,7 @@
         <v>264</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>250</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1110,7 +1110,7 @@
         <v>148.99</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1124,15 +1124,15 @@
         <v>175</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
         <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B23">
         <v>249</v>
@@ -1151,7 +1151,7 @@
         <v>320</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1162,7 +1162,7 @@
         <v>403.75</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>799</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>350</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1195,7 +1195,7 @@
         <v>400</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1256,17 +1256,17 @@
     </row>
     <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A42" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A43" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A44" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1279,7 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A7F8F4-B486-4C04-A69F-409D7A991A99}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -1301,33 +1301,33 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="15">
         <v>130000</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="7">
         <v>16.25</v>
@@ -1339,21 +1339,21 @@
         <v>20.16</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B5" s="9">
         <v>37800</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="7">
         <v>2.36</v>
@@ -1365,21 +1365,21 @@
         <v>2.36</v>
       </c>
       <c r="H5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="10">
         <v>38458.639999999999</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="7">
         <v>2.4</v>
@@ -1391,21 +1391,21 @@
         <v>3.18</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="9">
         <v>7000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="7">
         <v>0.44</v>
@@ -1417,47 +1417,47 @@
         <v>0.71</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="15">
         <v>250000</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G11" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" t="s">
         <v>112</v>
-      </c>
-      <c r="H11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="7">
         <v>800</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="7">
         <v>0.05</v>
@@ -1469,12 +1469,12 @@
         <v>0.05</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A19" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A20" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
@@ -1496,12 +1496,12 @@
     </row>
     <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A21" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A23" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1542,45 +1542,45 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -1589,7 +1589,7 @@
         <v>0.03</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3">
         <v>180</v>
@@ -1618,7 +1618,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1627,7 +1627,7 @@
         <v>0.02</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4">
         <v>900</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -1665,7 +1665,7 @@
         <v>0.03</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5">
         <v>450</v>
@@ -1691,10 +1691,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -1703,7 +1703,7 @@
         <v>0.01</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6">
         <v>450</v>
@@ -1732,7 +1732,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>40</v>
@@ -1741,7 +1741,7 @@
         <v>0.03</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7">
         <v>212</v>
@@ -1767,22 +1767,22 @@
     </row>
     <row r="17" spans="1:1" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A17" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A18" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A19" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="315" x14ac:dyDescent="0.6">
       <c r="A21" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>457.2</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3">
         <v>2733.16</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6">
         <v>1078.99</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="3">
         <f>SUM(B3:B6)</f>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="11">
         <v>0.86</v>
@@ -1863,12 +1863,12 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>470.25</v>
@@ -1876,12 +1876,12 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="12">
         <v>2.89</v>
@@ -1898,7 +1898,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,31 +1919,31 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="B4">
-        <v>22.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1969,12 +1969,12 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>508</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3">
         <v>1078.99</v>
